--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,25 +429,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>인공지능프로그래밍</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>인공지능프로그래밍</t>
+          <t>이병주</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>이병주</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -461,25 +456,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>자료구조</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>자료구조</t>
+          <t>황성재</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>황성재</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -493,25 +483,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>이산구조론</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>이산구조론</t>
+          <t>김택헌</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>김택헌</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -525,25 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>자연어정보분석</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>자연어정보분석</t>
+          <t>유정민</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>유정민</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -557,25 +537,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>고급데이터분석</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>고급데이터분석</t>
+          <t>유정민</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>유정민</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -589,25 +564,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>응용자료구조</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>응용자료구조</t>
+          <t>김택헌</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>김택헌</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -621,25 +591,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>데이터베이스개론</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>데이터베이스개론</t>
+          <t>박창희</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>박창희</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -653,25 +618,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>데이터분석개론</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>데이터분석개론</t>
+          <t>유정민</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>유정민</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -685,25 +645,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>정보SW공학</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>정보SW공학</t>
+          <t>박지호</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>박지호</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -717,25 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>미디어산업의발전</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>미디어산업의발전</t>
+          <t>강루가</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>강루가</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -749,25 +699,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>문학의이해와감상</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>문학의이해와감상</t>
+          <t>이한빛</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>이한빛</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -781,25 +726,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>BOOK CLUB(1)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BOOK CLUB(1)</t>
+          <t>전진희</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>전진희</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -813,25 +753,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>펜싱</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>펜싱</t>
+          <t>안효준</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>안효준</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -845,25 +780,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>RA리더십개발론</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RA리더십개발론</t>
+          <t>한봉환</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>한봉환</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -877,25 +807,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>RA리더십개발실습(1)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RA리더십개발실습(1)</t>
+          <t>손영종</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>손영종</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -909,25 +834,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>채플(D)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>채플(D)</t>
+          <t>정미현</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>정미현</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -941,25 +861,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>객체지향프로그래밍</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>객체지향프로그래밍</t>
+          <t>이인권</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>이인권</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -973,25 +888,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>정보프로그래밍2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>정보프로그래밍2</t>
+          <t>유정민</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>유정민</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1005,25 +915,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>인공지능기초수학</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>인공지능기초수학</t>
+          <t>어영정</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>어영정</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1037,25 +942,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>동아시아세계,한국사와한국 문화</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>동아시아세계,한국사와한국 문화</t>
+          <t>장병진</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>장병진</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1069,25 +969,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>우주의이해</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>우주의이해</t>
+          <t>이영욱</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>이영욱</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1101,25 +996,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>채플(C)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>채플(C)</t>
+          <t>이대성, 정종훈,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>이대성, 정종훈,</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1133,25 +1023,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ICT산업연계프로젝트</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ICT산업연계프로젝트</t>
+          <t>나정은</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>나정은</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1165,25 +1050,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>경제학입문</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>경제학입문</t>
+          <t>이재황</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>이재황</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1197,25 +1077,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>숫자와생활</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>숫자와생활</t>
+          <t>이은지</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>이은지</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1229,25 +1104,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>GLC수학</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GLC수학</t>
+          <t>한혜림</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>한혜림</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1261,25 +1131,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>프로그래밍을통한논리적사고</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>프로그래밍을통한논리적사고</t>
+          <t>최상민</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>최상민</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1293,25 +1158,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>RC자기주도활동(2)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RC자기주도활동(2)</t>
+          <t>손영종</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>손영종</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1325,25 +1185,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>채플(B)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>채플(B)</t>
+          <t>곽호철</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>곽호철</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1357,25 +1212,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>프랑스어(1)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>프랑스어(1)</t>
+          <t>송지연</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>송지연</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
@@ -1389,25 +1239,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>컴퓨터시스템과피지컬컴퓨팅</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>컴퓨터시스템과피지컬컴퓨팅</t>
+          <t>김신덕</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>김신덕</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>A0</t>
         </is>
@@ -1421,25 +1266,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>정보컴퓨팅기술개론</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>정보컴퓨팅기술개론</t>
+          <t>이종빈</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>이종빈</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1453,25 +1293,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>정보프로그래밍1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>정보프로그래밍1</t>
+          <t>이종빈</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>이종빈</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1485,25 +1320,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>한국의문화적사건</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>한국의문화적사건</t>
+          <t>김유미</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>김유미</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1517,25 +1347,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>GLC선형대수</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GLC선형대수</t>
+          <t>한혜림</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>한혜림</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1549,25 +1374,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>연세정신과인권</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>연세정신과인권</t>
+          <t>김왕배</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>김왕배</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1581,25 +1401,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>BOOK CLUB(3)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOOK CLUB(3)</t>
+          <t>베켓제 레미</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>베켓제 레미</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1613,25 +1428,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>YONSEI RC 101-GLD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>YONSEI RC 101-GLD</t>
+          <t>유성은</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>유성은</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1645,25 +1455,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>RC자기주도활동(1)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RC자기주도활동(1)</t>
+          <t>손영종</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>손영종</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1677,25 +1482,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>채플(A)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>채플(A)</t>
+          <t>정용한</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>정용한</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1709,25 +1509,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>기독교와세계문화</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>기독교와세계문화</t>
+          <t>홍성표</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>홍성표</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -1741,21 +1536,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>GLC영어1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GLC영어1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1765,21 +1555,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>GLC영어2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GLC영어2</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1787,7 +1572,6 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1795,7 +1579,6 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
